--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KNUT Cyber\2학년\1학기\coding\Lathi 1\Lathion-battleproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28632308-7C68-4CA2-87DA-8854D6193266}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653430B6-57C7-48B7-989A-A4D67A2636EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="750" windowWidth="8000" windowHeight="4220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="16080" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -511,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>92.857142857142861</v>
+        <v>-650</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>41.666666666666657</v>
+        <v>-400</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>92.857142857142861</v>
+        <v>-1800</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>41.666666666666657</v>
+        <v>-400</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>92.857142857142861</v>
+        <v>87.5</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>92.857142857142861</v>
+        <v>93.75</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>92.857142857142861</v>
+        <v>87.5</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>41.666666666666657</v>
+        <v>-400</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>41.666666666666657</v>
+        <v>87.5</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>41.666666666666657</v>
+        <v>93.75</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,7 +1094,7 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>92.857142857142861</v>
+        <v>93.75</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>41.666666666666657</v>
+        <v>87.5</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>92.857142857142861</v>
+        <v>-400</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>87.5</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>93.75</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>93.75</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>49</v>
+        <v>87.5</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>93.75</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="D24">
-        <v>-400</v>
+        <v>86.5</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>-400</v>
+        <v>93.75</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>83.333333333333329</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>100</v>
+        <v>93.75</v>
       </c>
       <c r="E27">
         <v>0</v>
